--- a/medicine/Enfance/Jean-Louis_Maunoury/Jean-Louis_Maunoury.xlsx
+++ b/medicine/Enfance/Jean-Louis_Maunoury/Jean-Louis_Maunoury.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Louis Maunoury est un auteur français né le 1er juillet 1939 à Nice.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Professeur agrégé d’économie à l’université de Nice, il consacre son temps libre à l’écriture : poésie, romans, essais, théâtre, livres pour la jeunesse. 
 Il a publié neuf romans pour adultes (Gallimard, Mercure de France, Denoël, 
 Robert Laffont : La Vie exemplaire de Bilal l’avertisseur) et s'est aussi passionné pour 
 la sagesse de Nasr Eddin Hodja, apprenant le turc sur le tard et publiant plusieurs 
-volumes de ces histoires chez Phébus, ainsi qu'un essai, Le Rire du Somnambule : humour et sagesse, au Seuil[1].
+volumes de ces histoires chez Phébus, ainsi qu'un essai, Le Rire du Somnambule : humour et sagesse, au Seuil.
 Jean-Louis Maunoury est le père de Pascal Mono, auteur-compositeur-interprète.[réf. nécessaire]
 </t>
         </is>
@@ -547,14 +561,16 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Genèse des innovations, la création technique dans l'activité de la firme. Paris : Presses universitaires de France, 1968, VIII-435 p. (Bibliothèque d'économie contemporaine. Études I.S.E.A.)
 Éclipses. Paris : P.J. Oswald, 1976, 95 p. (Voix nouvelles ; 190)
 Palais Lascaris. Paris : Mercure de France, 1979, 148 p.
 Bestiaire. Goudargues : G. Chambelland, 1983, 56 p. (Le Pont de l'épée ; 79)
 Alarmes blanches. Nice : Fonds école de Nice, 1984, 48 p. (Mots de passe)
-Tracts. Landemer : Møtus, 1992, [48] p.  (ISBN 2-907354-23-X)
+Tracts. Landemer : Møtus, 1992,  p.  (ISBN 2-907354-23-X)
 Innocents. Paris : Éd. SW-Télémaque, 2009, 190 p.  (ISBN 978-2-7533-0082-8)
 Romans
 Le Saut de l'ange : roman. Paris : Gallimard, 1988, 165 p.  (ISBN 2-07-071251-6)
